--- a/Admin/Kleinstmaterial.xlsx
+++ b/Admin/Kleinstmaterial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andkos\Desktop\Lagerverwaltung Python\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692BA39C-DDBD-4BCE-9396-CB58CCACCAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A3BCB5-F769-4D27-BC16-E91E187CDB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{4597F040-3EA1-4990-A9FC-E61D1CFBF77C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4597F040-3EA1-4990-A9FC-E61D1CFBF77C}"/>
   </bookViews>
   <sheets>
     <sheet name="Kleinstmaterial" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>MNr</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>ST</t>
+  </si>
+  <si>
+    <t>nVent-Kontaktscheibe 6mm 100St.</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -271,11 +274,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -289,7 +303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -615,10 +631,10 @@
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,8 +1375,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40945101</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D21:D43">
+  <conditionalFormatting sqref="D21:D44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>D21=#REF!</formula>
     </cfRule>

--- a/Admin/Kleinstmaterial.xlsx
+++ b/Admin/Kleinstmaterial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andkos\Desktop\Lagerverwaltung Python\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A3BCB5-F769-4D27-BC16-E91E187CDB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1638CD1E-C01D-430E-9806-B3BF2AD6546B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4597F040-3EA1-4990-A9FC-E61D1CFBF77C}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" xr2:uid="{4597F040-3EA1-4990-A9FC-E61D1CFBF77C}"/>
   </bookViews>
   <sheets>
     <sheet name="Kleinstmaterial" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1131,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="3">
         <v>10</v>
